--- a/results/I3_N5_M3_T15_C150_DepCentral_s3_P1_res.xlsx
+++ b/results/I3_N5_M3_T15_C150_DepCentral_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>597.4282073939519</v>
+        <v>974.6997292210331</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.94820739395058</v>
+        <v>20.71423809492234</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.354665156662408</v>
+        <v>2.957840319717379</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.354665156662408</v>
+        <v>2.94333144582801</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>359.8400000000012</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.64</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,6 +623,17 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -813,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -918,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.069516742254631</v>
+        <v>6.579377207014334</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.699445611809518</v>
+        <v>9.684936737920157</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.37517619638956</v>
+        <v>12.37517619638957</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.05666855417199</v>
+        <v>12.04215968028263</v>
       </c>
     </row>
     <row r="8">
@@ -966,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>13.61204927984102</v>
       </c>
     </row>
     <row r="10">
@@ -988,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1034,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1048,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1062,15 +1073,99 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.00999999999964</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1184,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1195,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.79499999999963</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1206,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.26999999999964</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1217,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.17499999999963</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1228,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>132.5199999999994</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -1239,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.7649999999994</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1250,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>134.9399999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1261,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>139.9649999999994</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1272,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>138.1299999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1283,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1294,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1305,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1316,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -1327,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1338,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.0100000000001</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
@@ -1349,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.7850000000001</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
@@ -1360,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8050000000001</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
@@ -1371,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3100000000001</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -1382,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.9950000000001</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
@@ -1393,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>178.4950000000001</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28">
@@ -1404,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>189.2100000000002</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
@@ -1415,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>177.3</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -1426,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>195.2850000000002</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1437,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>189.6300000000002</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
@@ -1503,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>178.4950000000001</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -1514,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.2100000000002</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
@@ -1525,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>177.3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1536,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>195.2850000000002</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -1547,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>189.6300000000002</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -1558,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>107.0100000000001</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43">
@@ -1569,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>107.7850000000001</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44">
@@ -1580,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>116.8050000000001</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45">
@@ -1591,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>101.3100000000001</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46">
@@ -1602,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>109.9950000000001</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>28.49500000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1715,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>39.21000000000015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1726,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>27.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1737,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>45.28500000000017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1748,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>39.63000000000017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1759,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -1770,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -1781,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -1792,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -1803,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1861,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1872,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1883,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1894,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1905,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1916,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1927,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1938,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1949,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1960,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1971,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1982,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1993,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2004,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2128,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2155,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2166,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2177,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2188,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2199,12 +2294,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
